--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-indonesia\InputData\fuels\BCTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\fuels\BCTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F028B6-30D4-4B9D-9516-8A471DC555CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED464C-FC0C-47EF-A2C1-21B0B5CF6166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13455" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="3450" yWindow="435" windowWidth="23955" windowHeight="16500" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>BCTR BAU Carbon Tax Rate</t>
   </si>
@@ -38,6 +46,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>There is no federal carbon tax in the U.S.</t>
+  </si>
+  <si>
+    <t>We currently disregard state-level programs, such as California's cap-and-trade system.</t>
   </si>
   <si>
     <t>Unit: $/metric ton CO2e</t>
@@ -65,9 +79,6 @@
   </si>
   <si>
     <t>geoengineering sector (uses industry sector rate)</t>
-  </si>
-  <si>
-    <t>There is no carbon tax in Indonesia</t>
   </si>
 </sst>
 </file>
@@ -444,20 +455,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49357908-BC85-41CC-9D98-173369A13AF6}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -465,14 +474,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -488,18 +502,16 @@
   </sheetPr>
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -598,9 +610,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -699,9 +711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -800,9 +812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -901,9 +913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1002,9 +1014,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1103,9 +1115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1204,9 +1216,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1305,9 +1317,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
